--- a/调节力训练仪/采购与加工/报价单/三方报价.xlsx
+++ b/调节力训练仪/采购与加工/报价单/三方报价.xlsx
@@ -57,6 +57,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="I6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>19*300*1200</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>可以八折</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C11" authorId="0">
       <text>
         <r>
@@ -110,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>长富科技</t>
   </si>
@@ -151,6 +175,9 @@
     <t>MBB-50107-SP</t>
   </si>
   <si>
+    <t>定做</t>
+  </si>
+  <si>
     <t>光学滑轨</t>
   </si>
   <si>
@@ -208,7 +235,13 @@
     <t>DR50F-50</t>
   </si>
   <si>
+    <t>7MRC23</t>
+  </si>
+  <si>
     <t>RCA104</t>
+  </si>
+  <si>
+    <t>7MRC24</t>
   </si>
   <si>
     <t>滑块</t>
@@ -224,8 +257,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -242,9 +275,106 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,22 +396,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,91 +413,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,13 +433,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,114 +607,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -533,54 +614,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,56 +819,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,8 +846,47 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -875,11 +902,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,7 +921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -897,143 +930,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1062,9 +1095,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
@@ -1197,8 +1227,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1363980" y="414020"/>
-          <a:ext cx="1423670" cy="768350"/>
+          <a:off x="1363980" y="423545"/>
+          <a:ext cx="1423670" cy="815975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1239,8 +1269,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4524375" y="412115"/>
-          <a:ext cx="1381125" cy="748665"/>
+          <a:off x="4524375" y="421640"/>
+          <a:ext cx="1381125" cy="796290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1281,8 +1311,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7628255" y="406400"/>
-          <a:ext cx="1379855" cy="765175"/>
+          <a:off x="7628255" y="415925"/>
+          <a:ext cx="1379855" cy="812800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1323,8 +1353,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1380490" y="1170940"/>
-          <a:ext cx="1417955" cy="762000"/>
+          <a:off x="1380490" y="1228090"/>
+          <a:ext cx="1417955" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1365,8 +1395,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4522470" y="1134110"/>
-          <a:ext cx="1376680" cy="795020"/>
+          <a:off x="4522470" y="1191260"/>
+          <a:ext cx="1376680" cy="842645"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1407,8 +1437,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7630160" y="1171575"/>
-          <a:ext cx="1388110" cy="765810"/>
+          <a:off x="7630160" y="1228725"/>
+          <a:ext cx="1388110" cy="813435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1449,8 +1479,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1380490" y="1942465"/>
-          <a:ext cx="1417955" cy="762000"/>
+          <a:off x="1380490" y="2047240"/>
+          <a:ext cx="1417955" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1491,8 +1521,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4524375" y="1943100"/>
-          <a:ext cx="1388110" cy="769620"/>
+          <a:off x="4524375" y="2047875"/>
+          <a:ext cx="1388110" cy="817245"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1533,8 +1563,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7609205" y="1942465"/>
-          <a:ext cx="1401445" cy="768350"/>
+          <a:off x="7609205" y="2047240"/>
+          <a:ext cx="1401445" cy="815975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1808,10 +1838,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:J24"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1823,10 +1853,11 @@
     <col min="6" max="6" width="13.4380952380952" customWidth="1"/>
     <col min="7" max="7" width="12.4285714285714" customWidth="1"/>
     <col min="8" max="8" width="20.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="10.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="13.5333333333333" customWidth="1"/>
     <col min="10" max="10" width="16.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="15.75"/>
     <row r="2" ht="16.5" spans="1:10">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
@@ -1845,7 +1876,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" ht="15.75" spans="1:10">
+    <row r="3" ht="16.5" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1864,10 +1895,10 @@
         <v>1700</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" ht="16.5" spans="1:10">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
@@ -1876,22 +1907,22 @@
       <c r="D4" s="9">
         <v>1800</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="9">
         <v>4850</v>
       </c>
-      <c r="H4" s="10"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="20">
         <v>2400</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" ht="16.5" spans="1:10">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
@@ -1900,237 +1931,248 @@
       <c r="D5" s="9">
         <v>2260</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="9">
         <v>6500</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="21"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" customHeight="1" spans="1:10">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>4500</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="13" t="s">
+      <c r="E6" s="13"/>
+      <c r="F6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>8700</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="22"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="21">
+        <v>6300</v>
+      </c>
     </row>
-    <row r="7" ht="15.75" spans="1:10">
+    <row r="7" ht="16.5" spans="1:10">
       <c r="A7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="5">
         <v>880</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" s="5">
         <v>198</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="23">
+        <v>17</v>
+      </c>
+      <c r="J7" s="22">
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" ht="16.5" spans="1:10">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="9">
         <v>1550</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" s="9">
         <v>290</v>
       </c>
-      <c r="H8" s="10"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="21"/>
+      <c r="J8" s="20"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" ht="16.5" spans="1:10">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="9">
         <v>2150</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" s="9">
         <v>462</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="21"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" customHeight="1" spans="1:10">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="13">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="12">
         <v>2800</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="13">
+      <c r="E10" s="13"/>
+      <c r="F10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="12">
         <v>640</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="22"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="21"/>
     </row>
-    <row r="11" ht="15.75" spans="1:10">
+    <row r="11" ht="16.5" spans="1:10">
       <c r="A11" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="15">
+      <c r="C11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="14">
         <v>150</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G11" s="5">
         <v>155</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="23">
+        <v>27</v>
+      </c>
+      <c r="J11" s="22">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" ht="16.5" spans="1:10">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="16">
+      <c r="C12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="15">
         <v>100</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G12" s="9">
         <v>185</v>
       </c>
-      <c r="H12" s="10"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="21">
+        <v>30</v>
+      </c>
+      <c r="J12" s="20">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" ht="16.5" spans="1:10">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="16">
+      <c r="C13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="15">
         <v>85</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" s="9">
         <v>180</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="21"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="20">
+        <v>150</v>
+      </c>
     </row>
     <row r="14" customHeight="1" spans="1:10">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="17">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="16">
         <v>390</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="22"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="21">
+        <v>420</v>
+      </c>
     </row>
-    <row r="15" ht="15.75"/>
+    <row r="22" ht="40" customHeight="1" spans="1:10">
+      <c r="A22" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+    </row>
     <row r="23" ht="40" customHeight="1" spans="1:10">
-      <c r="A23" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-    </row>
-    <row r="24" ht="40" customHeight="1" spans="1:10">
-      <c r="A24" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
+      <c r="A23" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/调节力训练仪/采购与加工/报价单/三方报价.xlsx
+++ b/调节力训练仪/采购与加工/报价单/三方报价.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12450"/>
+    <workbookView windowWidth="28245" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>长富科技</t>
   </si>
@@ -196,18 +196,27 @@
     <t>DR50-150</t>
   </si>
   <si>
+    <t>7MR210</t>
+  </si>
+  <si>
     <t>RA15-1</t>
   </si>
   <si>
     <t>DR50-300</t>
   </si>
   <si>
+    <t>7MR215</t>
+  </si>
+  <si>
     <t>RA20-1</t>
   </si>
   <si>
     <t>DR50-450</t>
   </si>
   <si>
+    <t>7MR220</t>
+  </si>
+  <si>
     <t>光学滑块</t>
   </si>
   <si>
@@ -244,29 +253,108 @@
     <t>7MRC24</t>
   </si>
   <si>
-    <t>滑块</t>
-  </si>
-  <si>
-    <t>镜片调整架</t>
+    <t>支撑杆</t>
+  </si>
+  <si>
+    <t>SP101</t>
+  </si>
+  <si>
+    <t>OP-25</t>
+  </si>
+  <si>
+    <t>7MP425</t>
+  </si>
+  <si>
+    <t>SP102</t>
+  </si>
+  <si>
+    <t>OP-40</t>
+  </si>
+  <si>
+    <t>7MP450</t>
+  </si>
+  <si>
+    <t>SP103</t>
+  </si>
+  <si>
+    <t>OP-50</t>
+  </si>
+  <si>
+    <t>7MP475</t>
+  </si>
+  <si>
+    <t>SP104</t>
+  </si>
+  <si>
+    <t>OP-75</t>
+  </si>
+  <si>
+    <t>7MP4100</t>
+  </si>
+  <si>
+    <t>杆架</t>
+  </si>
+  <si>
+    <t>PH101</t>
+  </si>
+  <si>
+    <t>PH-25A</t>
+  </si>
+  <si>
+    <t>7MH125</t>
+  </si>
+  <si>
+    <t>PH102</t>
+  </si>
+  <si>
+    <t>PH-40A</t>
+  </si>
+  <si>
+    <t>7MH150</t>
+  </si>
+  <si>
+    <t>PH103</t>
+  </si>
+  <si>
+    <t>PH-50A</t>
+  </si>
+  <si>
+    <t>7MH175</t>
+  </si>
+  <si>
+    <t>PH104</t>
+  </si>
+  <si>
+    <t>PH-75A</t>
+  </si>
+  <si>
+    <t>7MH1100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="\￥#,##0;\￥\-#,##0"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -282,6 +370,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -297,7 +424,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,22 +432,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -342,15 +461,31 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,53 +507,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -433,192 +521,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -682,6 +770,17 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -690,6 +789,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color auto="1"/>
       </left>
@@ -733,22 +854,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -764,6 +898,34 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -782,39 +944,180 @@
       <right style="thick">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thick">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
-        <color auto="1"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,8 +1125,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,9 +1148,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,38 +1204,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -939,144 +1227,147 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1085,22 +1376,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1109,32 +1397,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1577,6 +1922,258 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1375410</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7630160" y="2867025"/>
+          <a:ext cx="1375410" cy="807720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>4445</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7630160" y="3686175"/>
+          <a:ext cx="1384300" cy="823595"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="2867025"/>
+          <a:ext cx="1371600" cy="743585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>119380</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="3686175"/>
+          <a:ext cx="1381125" cy="748030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1376045</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>169545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="2867025"/>
+          <a:ext cx="1376045" cy="798195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1374140</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>186055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="3686175"/>
+          <a:ext cx="1374140" cy="814705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1838,10 +2435,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1863,103 +2460,103 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" ht="16.5" spans="1:10">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="7">
         <v>1220</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="9">
         <v>1700</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="41"/>
     </row>
     <row r="4" ht="16.5" spans="1:10">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="14">
         <v>1800</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="15">
         <v>4850</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="9" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="15">
         <v>2400</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:10">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="14">
         <v>2260</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="15">
         <v>6500</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="20"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" customHeight="1" spans="1:10">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="19">
         <v>4500</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="20"/>
+      <c r="F6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="21">
         <v>8700</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="12" t="s">
+      <c r="H6" s="22"/>
+      <c r="I6" s="18" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="21">
@@ -1967,230 +2564,418 @@
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:10">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="7">
         <v>880</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="9">
         <v>198</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="5" t="s">
+      <c r="H7" s="10"/>
+      <c r="I7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="9">
         <v>500</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:10">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="14">
         <v>1550</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="15">
         <v>290</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="20"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="15">
+        <v>1000</v>
+      </c>
     </row>
     <row r="9" ht="16.5" spans="1:10">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="14">
         <v>2150</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="E9" s="8"/>
+      <c r="F9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="15">
         <v>462</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="20"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="15">
+        <v>1500</v>
+      </c>
     </row>
     <row r="10" customHeight="1" spans="1:10">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="12">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="19">
         <v>2800</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="12">
+      <c r="E10" s="20"/>
+      <c r="F10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="21">
         <v>640</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="21"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="21">
+        <v>2000</v>
+      </c>
     </row>
     <row r="11" ht="16.5" spans="1:10">
-      <c r="A11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="14">
+      <c r="A11" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="25">
         <v>150</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="E11" s="8"/>
+      <c r="F11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="9">
         <v>155</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="22">
+      <c r="H11" s="10"/>
+      <c r="I11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:10">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="27">
         <v>100</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="E12" s="8"/>
+      <c r="F12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="15">
         <v>185</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="20">
+      <c r="H12" s="10"/>
+      <c r="I12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="15">
         <v>120</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:10">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="27">
         <v>85</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="E13" s="8"/>
+      <c r="F13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="15">
         <v>180</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="20">
+      <c r="H13" s="10"/>
+      <c r="I13" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="15">
         <v>150</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:10">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="16">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="31">
         <v>390</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="9" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="33">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:10">
+      <c r="A15" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="36">
+        <v>25</v>
+      </c>
+      <c r="E15" s="37"/>
+      <c r="F15" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="38">
+        <v>26</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:10">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="14">
+        <v>25</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="15">
+        <v>27</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="1:10">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="14">
+        <v>25</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="15">
+        <v>28</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:10">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="19">
         <v>35</v>
       </c>
-      <c r="J14" s="21">
-        <v>420</v>
+      <c r="E18" s="20"/>
+      <c r="F18" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="21">
+        <v>30</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="21">
+        <v>30</v>
       </c>
     </row>
-    <row r="22" ht="40" customHeight="1" spans="1:10">
-      <c r="A22" s="17" t="s">
-        <v>36</v>
-      </c>
+    <row r="19" ht="16.5" spans="1:10">
+      <c r="A19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="7">
+        <v>30</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="9">
+        <v>48</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="1:10">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="14">
+        <v>30</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="15">
+        <v>52</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="1:10">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="14">
+        <v>30</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="15">
+        <v>60</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:10">
+      <c r="A22" s="16"/>
       <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-    </row>
-    <row r="23" ht="40" customHeight="1" spans="1:10">
-      <c r="A23" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
+      <c r="C22" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="19">
+        <v>40</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="21">
+        <v>65</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" s="21">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="23">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B22"/>
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="E7:E10"/>
     <mergeCell ref="E11:E14"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="E19:E22"/>
     <mergeCell ref="H3:H6"/>
     <mergeCell ref="H7:H10"/>
     <mergeCell ref="H11:H14"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="H19:H22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
